--- a/NGO-Details/target/test-classes/DataFiles/ExportExcel.xlsx
+++ b/NGO-Details/target/test-classes/DataFiles/ExportExcel.xlsx
@@ -346,16 +346,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:G15"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="B231" sqref="A1:G250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="106.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="131" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="48.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="46.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
